--- a/src/backend/dados.xlsx
+++ b/src/backend/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luandemello/Workspace/2024/2024-2A-T08-EC07-G03/src/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E74ACE-5722-9549-9029-3E45A4D6438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19267C7-7C7D-C443-A022-0F198F85A175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,67 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>KNR</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>MOTOR</t>
-  </si>
-  <si>
-    <t>ESTACAO</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>HALLE</t>
-  </si>
-  <si>
-    <t>FALHA</t>
-  </si>
-  <si>
-    <t>DATA_x</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>VALUE_ID</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>DATA_y</t>
-  </si>
-  <si>
-    <t>2024-1346277</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
+    <t>Nvezes1</t>
+  </si>
+  <si>
+    <t>Nvezes2</t>
+  </si>
+  <si>
+    <t>Nvezes718</t>
+  </si>
+  <si>
+    <t>SomaTempo1</t>
+  </si>
+  <si>
+    <t>SomaTempo2</t>
+  </si>
+  <si>
+    <t>SomaTempo718</t>
+  </si>
+  <si>
+    <t>2023-2016173</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +82,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +113,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,162 +447,124 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>400000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>369260000</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2079860</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>69</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1479</v>
-      </c>
-      <c r="K2" s="3">
-        <v>10282126</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3">
-        <v>10</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>33185</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
